--- a/Vendas.xlsx
+++ b/Vendas.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vagne\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{554BB8BF-A3A8-431B-9012-23CF3C784111}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3211BA41-751A-47BB-939E-53C0466C6794}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{C4FA2004-518B-4A36-9C6D-14A223445BFB}"/>
   </bookViews>
   <sheets>
     <sheet name="Vendas" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029" iterateCount="1" calcOnSave="0" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,7 +23,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
   <si>
     <t>IdVenda</t>
   </si>
@@ -64,6 +67,9 @@
   </si>
   <si>
     <t>Livro</t>
+  </si>
+  <si>
+    <t>teste</t>
   </si>
 </sst>
 </file>
@@ -429,10 +435,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E43658C-7A1A-465D-A89A-EFF4857E9BB1}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -672,6 +678,14 @@
         <v>43954</v>
       </c>
     </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Vendas.xlsx
+++ b/Vendas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vagne\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3211BA41-751A-47BB-939E-53C0466C6794}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7A5405D-17ED-4E5C-8A20-EE197D93EE05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{C4FA2004-518B-4A36-9C6D-14A223445BFB}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
   <si>
     <t>IdVenda</t>
   </si>
@@ -435,10 +435,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E43658C-7A1A-465D-A89A-EFF4857E9BB1}">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -686,6 +686,14 @@
         <v>11</v>
       </c>
     </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Vendas.xlsx
+++ b/Vendas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vagne\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7A5405D-17ED-4E5C-8A20-EE197D93EE05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A46637E-99B2-41A2-A80F-9A3848C3AA4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{C4FA2004-518B-4A36-9C6D-14A223445BFB}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
   <si>
     <t>IdVenda</t>
   </si>
@@ -67,9 +67,6 @@
   </si>
   <si>
     <t>Livro</t>
-  </si>
-  <si>
-    <t>teste</t>
   </si>
 </sst>
 </file>
@@ -435,10 +432,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E43658C-7A1A-465D-A89A-EFF4857E9BB1}">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="A12" sqref="A12:XFD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -678,22 +675,6 @@
         <v>43954</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>11</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Vendas.xlsx
+++ b/Vendas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vagne\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A46637E-99B2-41A2-A80F-9A3848C3AA4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFCF35F9-857B-4718-A92E-2750719F019B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{C4FA2004-518B-4A36-9C6D-14A223445BFB}"/>
   </bookViews>
@@ -435,7 +435,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:XFD15"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Vendas.xlsx
+++ b/Vendas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vagne\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFCF35F9-857B-4718-A92E-2750719F019B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{111146F2-6E02-464A-9E66-1A37933B04F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{C4FA2004-518B-4A36-9C6D-14A223445BFB}"/>
   </bookViews>
@@ -432,10 +432,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E43658C-7A1A-465D-A89A-EFF4857E9BB1}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -675,6 +675,16 @@
         <v>43954</v>
       </c>
     </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
